--- a/1/2/Colocaciones Reales 1986 a 2021 - Mensual.xlsx
+++ b/1/2/Colocaciones Reales 1986 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
   <si>
     <t>Serie</t>
   </si>
@@ -1307,6 +1307,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E427"/>
+  <dimension ref="A1:E428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8917,16 +8920,33 @@
         <v>430</v>
       </c>
       <c r="B427">
-        <v>178786</v>
+        <v>178799</v>
       </c>
       <c r="C427">
-        <v>15536</v>
+        <v>15537</v>
       </c>
       <c r="D427">
-        <v>56084</v>
+        <v>56083</v>
       </c>
       <c r="E427">
-        <v>99183</v>
+        <v>99214</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" t="s">
+        <v>431</v>
+      </c>
+      <c r="B428">
+        <v>180132</v>
+      </c>
+      <c r="C428">
+        <v>15420</v>
+      </c>
+      <c r="D428">
+        <v>56030</v>
+      </c>
+      <c r="E428">
+        <v>100179</v>
       </c>
     </row>
   </sheetData>

--- a/1/2/Colocaciones Reales 1986 a 2021 - Mensual.xlsx
+++ b/1/2/Colocaciones Reales 1986 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
   <si>
     <t>Serie</t>
   </si>
@@ -1310,6 +1310,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E428"/>
+  <dimension ref="A1:E429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8937,16 +8940,33 @@
         <v>431</v>
       </c>
       <c r="B428">
-        <v>180132</v>
+        <v>180269</v>
       </c>
       <c r="C428">
-        <v>15420</v>
+        <v>15421</v>
       </c>
       <c r="D428">
-        <v>56030</v>
+        <v>56029</v>
       </c>
       <c r="E428">
-        <v>100179</v>
+        <v>100312</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" t="s">
+        <v>432</v>
+      </c>
+      <c r="B429">
+        <v>181081</v>
+      </c>
+      <c r="C429">
+        <v>15499</v>
+      </c>
+      <c r="D429">
+        <v>56462</v>
+      </c>
+      <c r="E429">
+        <v>100598</v>
       </c>
     </row>
   </sheetData>

--- a/1/2/Colocaciones Reales 1986 a 2021 - Mensual.xlsx
+++ b/1/2/Colocaciones Reales 1986 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
   <si>
     <t>Serie</t>
   </si>
@@ -1313,6 +1313,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E429"/>
+  <dimension ref="A1:E430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8957,16 +8960,33 @@
         <v>432</v>
       </c>
       <c r="B429">
-        <v>181081</v>
+        <v>181179</v>
       </c>
       <c r="C429">
-        <v>15499</v>
+        <v>15495</v>
       </c>
       <c r="D429">
         <v>56462</v>
       </c>
       <c r="E429">
-        <v>100598</v>
+        <v>100679</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" t="s">
+        <v>433</v>
+      </c>
+      <c r="B430">
+        <v>181569</v>
+      </c>
+      <c r="C430">
+        <v>15328</v>
+      </c>
+      <c r="D430">
+        <v>56412</v>
+      </c>
+      <c r="E430">
+        <v>101052</v>
       </c>
     </row>
   </sheetData>

--- a/1/2/Colocaciones Reales 1986 a 2021 - Mensual.xlsx
+++ b/1/2/Colocaciones Reales 1986 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
   <si>
     <t>Serie</t>
   </si>
@@ -1316,6 +1316,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +1676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E430"/>
+  <dimension ref="A1:E431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8977,16 +8980,33 @@
         <v>433</v>
       </c>
       <c r="B430">
-        <v>181569</v>
+        <v>181550</v>
       </c>
       <c r="C430">
-        <v>15328</v>
+        <v>15330</v>
       </c>
       <c r="D430">
         <v>56412</v>
       </c>
       <c r="E430">
-        <v>101052</v>
+        <v>101004</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" t="s">
+        <v>434</v>
+      </c>
+      <c r="B431">
+        <v>181367</v>
+      </c>
+      <c r="C431">
+        <v>15249</v>
+      </c>
+      <c r="D431">
+        <v>56434</v>
+      </c>
+      <c r="E431">
+        <v>100695</v>
       </c>
     </row>
   </sheetData>
